--- a/DuAnQLNCKH/UpLoadFile/File Mau Nhap Cong trinh sinh vien.xlsx
+++ b/DuAnQLNCKH/UpLoadFile/File Mau Nhap Cong trinh sinh vien.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MainWebNCKH\WebNCKH\DuAnQLNCKH\UpLoadFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -443,7 +443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
